--- a/biology/Botanique/Papaveroideae/Papaveroideae.xlsx
+++ b/biology/Botanique/Papaveroideae/Papaveroideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Papaveroideae sont une sous-famille de plantes dicotylédones de la famille des Papaveraceae qui compte 4 tribus, 23 genres et environ 240 espèces. C'est l'une des quatre sous-familles reconnues dans les Papaveraceae avec les Pteridophylloideae, Hypecoideae et Fumarioideae[2]. Certains auteurs ne reconnaissent que deux sous-familles : Papaveroideae et Fumarioideae, cette dernière incluant les genres Pteridophyllum et Hypecoum[2].
-Les Papaveroideae se distinguent des autres sous-familles par les caractères suivants : présence de laticifères avec une sève laiteuse ou un latex coloré, symétrie florale actinomorphe, calice composé de deux sépales renfermant le bouton floral, corolle composée de 4 à 16 pétales répartis en 2 ou 3 verticilles, sans éperon, étamines nombreuses (de 16 à 60) aux anthères dithèques, nectaires absents, gynécée uniloculaire formé de 2 à 20 carpelles soudés, fruit généralement une capsule, graines nombreuses généralement sans arille[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Papaveroideae sont une sous-famille de plantes dicotylédones de la famille des Papaveraceae qui compte 4 tribus, 23 genres et environ 240 espèces. C'est l'une des quatre sous-familles reconnues dans les Papaveraceae avec les Pteridophylloideae, Hypecoideae et Fumarioideae. Certains auteurs ne reconnaissent que deux sous-familles : Papaveroideae et Fumarioideae, cette dernière incluant les genres Pteridophyllum et Hypecoum.
+Les Papaveroideae se distinguent des autres sous-familles par les caractères suivants : présence de laticifères avec une sève laiteuse ou un latex coloré, symétrie florale actinomorphe, calice composé de deux sépales renfermant le bouton floral, corolle composée de 4 à 16 pétales répartis en 2 ou 3 verticilles, sans éperon, étamines nombreuses (de 16 à 60) aux anthères dithèques, nectaires absents, gynécée uniloculaire formé de 2 à 20 carpelles soudés, fruit généralement une capsule, graines nombreuses généralement sans arille. 
 </t>
         </is>
       </c>
@@ -514,13 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon BioLib                    (2 octobre 2020)[3]
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (2 octobre 2020)
 Chelidoniaceae Martynov
 Eschscholziaceae Seringe
-Platystemonaceae Lilja
-Liste des genres
-Selon BioLib                    (2 octobre 2020)[3] :
+Platystemonaceae Lilja</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Papaveroideae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Papaveroideae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (2 octobre 2020) :
 Arctomecon Torr. &amp; Frém.
 Argemone L.
 Bocconia L.
